--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/2.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/2.xlsx
@@ -479,13 +479,13 @@
         <v>-16.99305279366321</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.5239555354412</v>
+        <v>-21.47261607433173</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.09120455780623385</v>
+        <v>-0.07570640603811346</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.911691629730237</v>
+        <v>-8.923718586622847</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.03948288769459</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.67460539303832</v>
+        <v>-21.62408239607562</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2216090379674563</v>
+        <v>-0.2047321862628659</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.428853311553716</v>
+        <v>-8.434480558457535</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-16.911478632975</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.87171059388486</v>
+        <v>-21.83570305831003</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3714717654590002</v>
+        <v>-0.3532357698454074</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.326824627248069</v>
+        <v>-8.338357794447122</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.58341848603328</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.99374509428992</v>
+        <v>-21.95657397508077</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3945087658159034</v>
+        <v>-0.3778372523997234</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.8200692874786</v>
+        <v>-7.843213845986575</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.08038103737638</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.94300209201822</v>
+        <v>-21.92032198916259</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5166703803995072</v>
+        <v>-0.5013775669197973</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.125859646417879</v>
+        <v>-7.143596963331047</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.40207445018114</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.2144006412144</v>
+        <v>-22.18881157927296</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6550634977812686</v>
+        <v>-0.6287850858716008</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.54543186217087</v>
+        <v>-6.564381652787032</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-14.58582592794856</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.60264645452985</v>
+        <v>-22.57748273618584</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8232013329413407</v>
+        <v>-0.7985656273389562</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.12640975062819</v>
+        <v>-6.143482162607457</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.65927349345487</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.88092872539465</v>
+        <v>-22.85343295077512</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9425077675146661</v>
+        <v>-0.9163858038247396</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.809010535821205</v>
+        <v>-5.834418704508562</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.63640071247417</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.33784064015591</v>
+        <v>-23.31826994566766</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.041994168249518</v>
+        <v>-1.013031691569914</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.504234736744594</v>
+        <v>-5.526225489631977</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.55376651757256</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.76231888336207</v>
+        <v>-23.7471238500197</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.297723450437239</v>
+        <v>-1.265480450149935</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.114199546915853</v>
+        <v>-5.147860359194563</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.43014618471273</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23133109011896</v>
+        <v>-24.2190743499036</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.217118394222412</v>
+        <v>-1.190150632344509</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.944511896578969</v>
+        <v>-4.974691735968435</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.269882654040169</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.82553120671007</v>
+        <v>-24.81682877448696</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.142619707584362</v>
+        <v>-1.111066057265293</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.854334164918723</v>
+        <v>-4.878358744662743</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.100773761558658</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.42896176826591</v>
+        <v>-25.42308518201188</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.071900223254437</v>
+        <v>-1.035345118910514</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.719211793130928</v>
+        <v>-4.745333756820854</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.928200848079983</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.04754825110919</v>
+        <v>-26.04401349914441</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.026911582065086</v>
+        <v>-0.9901413614190184</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.72817823172485</v>
+        <v>-4.747543587924699</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.759173006846886</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.82028023145943</v>
+        <v>-26.81450631434961</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9327541988151707</v>
+        <v>-0.9001640790403157</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.667383431334762</v>
+        <v>-4.680925980356117</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.614584360740917</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.58454200741275</v>
+        <v>-27.58596715291445</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8119272831062347</v>
+        <v>-0.7831652557081741</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.690611102959475</v>
+        <v>-4.700702013132788</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.501624771256733</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.4579997517386</v>
+        <v>-28.45295918565881</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6486442317650093</v>
+        <v>-0.6255876753806384</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.938904205702618</v>
+        <v>-4.942116283214181</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.436424945371613</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.11847524541761</v>
+        <v>-29.11944326877726</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3937558587583985</v>
+        <v>-0.3652236146830828</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.209148949278208</v>
+        <v>-5.1997962791418</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.438243057474549</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.54159434471476</v>
+        <v>-29.54319060545681</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1897669362432392</v>
+        <v>-0.1636694175876472</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.534282572948653</v>
+        <v>-5.527809527856857</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.5165986801859277</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.13324973323164</v>
+        <v>-30.1363518080887</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2222736734934857</v>
+        <v>0.2524681799035524</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.850180862647496</v>
+        <v>-5.837102769278498</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.3123922711938323</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.68956982461789</v>
+        <v>-30.68655819638788</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2704352801394649</v>
+        <v>0.2923771429581791</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.119477138890905</v>
+        <v>-6.105915033842082</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.037504680469992</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.02037225175053</v>
+        <v>-31.02224718588399</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5549705907870479</v>
+        <v>0.5767168933310857</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.410412159527279</v>
+        <v>-6.398834991266424</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.655878481181926</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.22830660280729</v>
+        <v>-31.22510674781289</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7518166742696445</v>
+        <v>0.7750150118531559</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.669940200050593</v>
+        <v>-6.650320615493663</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.158418574736481</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.53122457927447</v>
+        <v>-31.52550933024705</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9841422805854428</v>
+        <v>1.002422277260838</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.718854713754077</v>
+        <v>-6.695113696408337</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.543203612456657</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.44118862881336</v>
+        <v>-31.43541715620697</v>
       </c>
       <c r="F26" t="n">
-        <v>1.007770850773243</v>
+        <v>1.030098945134443</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.903048047465097</v>
+        <v>-6.867783640934039</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.814089341411637</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.54251818513704</v>
+        <v>-31.53387931000321</v>
       </c>
       <c r="F27" t="n">
-        <v>1.258567125032246</v>
+        <v>1.28115922576426</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.164101458130888</v>
+        <v>-7.130333087701106</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.971136699066154</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.35797528743504</v>
+        <v>-31.35022132254411</v>
       </c>
       <c r="F28" t="n">
-        <v>1.415963812105706</v>
+        <v>1.433759797101276</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.338780784478892</v>
+        <v>-7.295439738603691</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.022989445595615</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.16405283005886</v>
+        <v>-31.15525506220185</v>
       </c>
       <c r="F29" t="n">
-        <v>1.438707472050594</v>
+        <v>1.45792126903757</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.637303543772719</v>
+        <v>-7.591361546244319</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.979954610257599</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.05526264925627</v>
+        <v>-31.04036340082935</v>
       </c>
       <c r="F30" t="n">
-        <v>1.563254921985252</v>
+        <v>1.577462375940507</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.670602569543276</v>
+        <v>-7.621091597002029</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.850400687034627</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.77407141930565</v>
+        <v>-30.76343049585982</v>
       </c>
       <c r="F31" t="n">
-        <v>1.4768906156812</v>
+        <v>1.500509407855266</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.621947173203739</v>
+        <v>-7.582003987101044</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.644553053578492</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.3700805593753</v>
+        <v>-30.35659667843635</v>
       </c>
       <c r="F32" t="n">
-        <v>1.446471214955255</v>
+        <v>1.464912548857258</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.616564376643265</v>
+        <v>-7.581417306277014</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.369288759902971</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.86940469964485</v>
+        <v>-29.85832376558098</v>
       </c>
       <c r="F33" t="n">
-        <v>1.395024195694709</v>
+        <v>1.419082998486797</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.870866068825847</v>
+        <v>-7.834511413763467</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.029865983708165</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.28784022130128</v>
+        <v>-29.27200961706621</v>
       </c>
       <c r="F34" t="n">
-        <v>1.393244597195152</v>
+        <v>1.415264684123737</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.876503093743399</v>
+        <v>-7.83490253431282</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.633835289495221</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.81771332097874</v>
+        <v>-28.80497745809042</v>
       </c>
       <c r="F35" t="n">
-        <v>1.408136512111775</v>
+        <v>1.432620658501285</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.860046696629364</v>
+        <v>-7.824273833384147</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.186191450347471</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.18985728111578</v>
+        <v>-28.17858567578411</v>
       </c>
       <c r="F36" t="n">
-        <v>1.332669802114076</v>
+        <v>1.353521416401468</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.692065309689033</v>
+        <v>-7.667111818640299</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.692792325812888</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.54128163015085</v>
+        <v>-27.52965557182132</v>
       </c>
       <c r="F37" t="n">
-        <v>1.423292433399211</v>
+        <v>1.44590897916556</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.609397092576368</v>
+        <v>-7.584360488410897</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.1626427764159417</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.96439348687548</v>
+        <v>-26.95966092822831</v>
       </c>
       <c r="F38" t="n">
-        <v>1.26264944576612</v>
+        <v>1.291225690903238</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.54982454390301</v>
+        <v>-7.529999621057669</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.3989945810653016</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.19952302956724</v>
+        <v>-26.19999237422646</v>
       </c>
       <c r="F39" t="n">
-        <v>1.342423370813571</v>
+        <v>1.364301676543015</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.465743403805806</v>
+        <v>-7.454796917430784</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.9850351834609614</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.55612483687437</v>
+        <v>-25.55581194043489</v>
       </c>
       <c r="F40" t="n">
-        <v>1.339274850391278</v>
+        <v>1.36643328353699</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.141631582570547</v>
+        <v>-7.133339826924259</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.586811088201794</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.98719599677834</v>
+        <v>-24.99115120333368</v>
       </c>
       <c r="F41" t="n">
-        <v>1.39077564872736</v>
+        <v>1.414125545523746</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.134591412682189</v>
+        <v>-7.134703859840128</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.200572164777131</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.30471508319135</v>
+        <v>-24.305756441654</v>
       </c>
       <c r="F42" t="n">
-        <v>1.394320178705873</v>
+        <v>1.420857707979488</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.869343234124585</v>
+        <v>-6.867783640934039</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.820058496457608</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.6210461409357</v>
+        <v>-23.62015634168592</v>
       </c>
       <c r="F43" t="n">
-        <v>1.345791896544875</v>
+        <v>1.371649853863989</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.818258001372191</v>
+        <v>-6.821328297684614</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.439390054591015</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.93337310205604</v>
+        <v>-22.93506469843199</v>
       </c>
       <c r="F44" t="n">
-        <v>1.455589212762051</v>
+        <v>1.481398280012495</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.735971126795146</v>
+        <v>-6.741608151712699</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.058561123514552</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.09994899045992</v>
+        <v>-22.10297039670367</v>
       </c>
       <c r="F45" t="n">
-        <v>1.503315697796875</v>
+        <v>1.531363930192366</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.589022247396283</v>
+        <v>-6.597934906914669</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.671748202302895</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.57925509211287</v>
+        <v>-21.58391431565704</v>
       </c>
       <c r="F46" t="n">
-        <v>1.496871986746281</v>
+        <v>1.526083802776098</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.47357812824782</v>
+        <v>-6.475949296578274</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.277013904518816</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.89544436865808</v>
+        <v>-20.90805311736786</v>
       </c>
       <c r="F47" t="n">
-        <v>1.575604553331079</v>
+        <v>1.601775407089675</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.45394387667029</v>
+        <v>-6.457938195280559</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.876183447918002</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.25902767777116</v>
+        <v>-20.27406626289379</v>
       </c>
       <c r="F48" t="n">
-        <v>1.622568353294664</v>
+        <v>1.646196923482464</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.433243821595772</v>
+        <v>-6.440704446074684</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.459048763113535</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.48701438143036</v>
+        <v>-19.50807133400616</v>
       </c>
       <c r="F49" t="n">
-        <v>1.764496222641205</v>
+        <v>1.791444428491641</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.197803917905749</v>
+        <v>-6.202340916278247</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.026234347021866</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.09365955593898</v>
+        <v>-19.11862282500145</v>
       </c>
       <c r="F50" t="n">
-        <v>1.761020138758829</v>
+        <v>1.791869772089062</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.209356641132269</v>
+        <v>-6.209620647503082</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.576815255416591</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.51403845782501</v>
+        <v>-18.53756924787547</v>
       </c>
       <c r="F51" t="n">
-        <v>1.731622540468069</v>
+        <v>1.755696010280758</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.262720151084646</v>
+        <v>-6.259977418232307</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.097550260512088</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.03991234988533</v>
+        <v>-18.0523304273273</v>
       </c>
       <c r="F52" t="n">
-        <v>1.735690194181343</v>
+        <v>1.766305155181964</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.273573746329197</v>
+        <v>-6.271882149953244</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.593277609603776</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.63882800453737</v>
+        <v>-17.65513284243853</v>
       </c>
       <c r="F53" t="n">
-        <v>1.821154923221883</v>
+        <v>1.853676596900601</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.182853334906723</v>
+        <v>-6.184730713543619</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.060742281404099</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.01110396785982</v>
+        <v>-17.03098755878757</v>
       </c>
       <c r="F54" t="n">
-        <v>1.87775006671329</v>
+        <v>1.911249541765391</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.184608488371945</v>
+        <v>-6.182936448023461</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.487892905750289</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.79909707408292</v>
+        <v>-16.81277162628968</v>
       </c>
       <c r="F55" t="n">
-        <v>1.862662591521991</v>
+        <v>1.891292615734645</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.42020484028171</v>
+        <v>-6.415428280572734</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.880788817709567</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.24141783878767</v>
+        <v>-16.25252077338243</v>
       </c>
       <c r="F56" t="n">
-        <v>1.891947742654811</v>
+        <v>1.918152819461475</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.317139686520276</v>
+        <v>-6.309771953171835</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.2322957866821</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.1442683833352</v>
+        <v>-16.15565488032825</v>
       </c>
       <c r="F57" t="n">
-        <v>1.932741615952349</v>
+        <v>1.959851159029393</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.498756513612433</v>
+        <v>-6.484211718183361</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.53232621119317</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.92481064309312</v>
+        <v>-15.9316259186656</v>
       </c>
       <c r="F58" t="n">
-        <v>1.815889462826215</v>
+        <v>1.842099428639746</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.651611313306528</v>
+        <v>-6.637403859351274</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.78476398086976</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.66339055691231</v>
+        <v>-15.66953603854402</v>
       </c>
       <c r="F59" t="n">
-        <v>1.873418406629203</v>
+        <v>1.900307944397236</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.423959597555501</v>
+        <v>-6.417080764893751</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.97608972089337</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43735221342737</v>
+        <v>-15.43741088150977</v>
       </c>
       <c r="F60" t="n">
-        <v>1.940446690774607</v>
+        <v>1.967165113302298</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.455361688661696</v>
+        <v>-6.452012718957858</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.09912823703576</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.29031044289803</v>
+        <v>-15.287005474256</v>
       </c>
       <c r="F61" t="n">
-        <v>1.884760902560446</v>
+        <v>1.91096597936711</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.290372373923916</v>
+        <v>-6.293462226263807</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.1547459704042</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.25868834648283</v>
+        <v>-15.24953612562796</v>
       </c>
       <c r="F62" t="n">
-        <v>1.883108418239429</v>
+        <v>1.913904272494126</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.372297461992811</v>
+        <v>-6.375235755119826</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.12866108104498</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.20363812916136</v>
+        <v>-15.18905911068422</v>
       </c>
       <c r="F63" t="n">
-        <v>1.868729849043832</v>
+        <v>1.894778477630755</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.4127882168646</v>
+        <v>-6.422840014982977</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.02241742339035</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.25041125785714</v>
+        <v>-15.23143213319978</v>
       </c>
       <c r="F64" t="n">
-        <v>1.712452744542896</v>
+        <v>1.740735649267999</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.405249368275817</v>
+        <v>-6.416997651777014</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.83796330155968</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.29334651616239</v>
+        <v>-15.2692583793291</v>
       </c>
       <c r="F65" t="n">
-        <v>1.70813575147941</v>
+        <v>1.737807134154717</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.508964759950551</v>
+        <v>-6.52121661115904</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.56491194480865</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.29975111515805</v>
+        <v>-15.27286646639688</v>
       </c>
       <c r="F66" t="n">
-        <v>1.80081176564865</v>
+        <v>1.82234784089741</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.455611028011908</v>
+        <v>-6.464059231877937</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.21369062370134</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.1774330523547</v>
+        <v>-15.14844613064076</v>
       </c>
       <c r="F67" t="n">
-        <v>1.623262592269766</v>
+        <v>1.642872398812962</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.217843957053233</v>
+        <v>-6.23497992612177</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.788018999571946</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.30579392764555</v>
+        <v>-15.27008462148961</v>
       </c>
       <c r="F68" t="n">
-        <v>1.584517212849465</v>
+        <v>1.606043510084492</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.34039669218619</v>
+        <v>-6.359185145575744</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.285213837234314</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.21388548755442</v>
+        <v>-15.17717882399762</v>
       </c>
       <c r="F69" t="n">
-        <v>1.553520909313225</v>
+        <v>1.579075748206589</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.197324795232792</v>
+        <v>-6.203211159500557</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.723650702147218</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.26381691468622</v>
+        <v>-15.22599555756377</v>
       </c>
       <c r="F70" t="n">
-        <v>1.478088422363594</v>
+        <v>1.495762182187491</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.142567918323344</v>
+        <v>-6.156765594264865</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.110786952287112</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.28787571747831</v>
+        <v>-15.2482307607945</v>
       </c>
       <c r="F71" t="n">
-        <v>1.369821365295762</v>
+        <v>1.388673375774586</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.145877775972245</v>
+        <v>-6.15712249176615</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.451224943611935</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.40662969427567</v>
+        <v>-15.36502424583823</v>
       </c>
       <c r="F72" t="n">
-        <v>1.291548365356454</v>
+        <v>1.30814654366963</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.009909605996474</v>
+        <v>-6.018480035034176</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.763234118772388</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.51569854846968</v>
+        <v>-15.47500245530948</v>
       </c>
       <c r="F73" t="n">
-        <v>1.222779594766428</v>
+        <v>1.237700843724253</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.158432745606483</v>
+        <v>-6.164563560217594</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.04931055334186</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.63346494587993</v>
+        <v>-15.59522313416692</v>
       </c>
       <c r="F74" t="n">
-        <v>1.090214173570029</v>
+        <v>1.108816844698641</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.070019945425193</v>
+        <v>-6.073271134991692</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.312872802977593</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.88484790096296</v>
+        <v>-15.84320822947744</v>
       </c>
       <c r="F75" t="n">
-        <v>1.031878543634</v>
+        <v>1.051155897710246</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.104458109795742</v>
+        <v>-6.106663051892721</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.562113326916919</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.90606619076537</v>
+        <v>-15.86560965894165</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8204632196879973</v>
+        <v>0.8452700405307237</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.221720939498697</v>
+        <v>-6.224297446117562</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.796767092878064</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.96675343300438</v>
+        <v>-15.92961164783643</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6732454449114543</v>
+        <v>0.6942241733773864</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.152844610757599</v>
+        <v>-6.154780657476898</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.022942262020888</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.11123336393545</v>
+        <v>-16.07696631480525</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6893107214761369</v>
+        <v>0.7096392120287692</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.125187498911461</v>
+        <v>-6.127015987479687</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.247945396461029</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.23500346177827</v>
+        <v>-16.19984172439142</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4041985080182579</v>
+        <v>0.4272550644026287</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.143213267229776</v>
+        <v>-6.14144833575082</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.477304104541409</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.71609640450331</v>
+        <v>-16.68225958797739</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3886661332020691</v>
+        <v>0.412754270035359</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.10461944702235</v>
+        <v>-6.094523647842171</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7206798454057289</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.18658998034087</v>
+        <v>-17.16170493538827</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2167295397064042</v>
+        <v>0.2406758953405536</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.205601883858479</v>
+        <v>-6.190059731028556</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.01590759660533268</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.61983910186627</v>
+        <v>-17.59373180519694</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.08976718978736085</v>
+        <v>-0.06941425420039392</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.25485373903578</v>
+        <v>-6.239013356786975</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.7335004278046651</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.10296098244107</v>
+        <v>-18.08354184716568</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.09956964855552533</v>
+        <v>-0.07734422333852997</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.296625413706701</v>
+        <v>-6.274820443080261</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.43656522092321</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.88013707003334</v>
+        <v>-18.86258064637424</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1956337444835372</v>
+        <v>-0.1748016862236126</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.321085115061877</v>
+        <v>-6.292367088725618</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>2.130653100952328</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.56819634045548</v>
+        <v>-19.5541551127337</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3518326248746028</v>
+        <v>-0.3305996680515912</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.418356795686016</v>
+        <v>-6.385620005705154</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.817180769824843</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.22617844063236</v>
+        <v>-20.21218121397238</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5109062413034144</v>
+        <v>-0.4845447162770091</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.672917605232544</v>
+        <v>-6.634358008073185</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>3.4943545278689</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.97787302443427</v>
+        <v>-20.96534249983436</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6129300366021956</v>
+        <v>-0.5849942513646436</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.00313579604458</v>
+        <v>-6.961721018874943</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>4.15610254674826</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.82680017680538</v>
+        <v>-21.81093046051537</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7259003182759993</v>
+        <v>-0.700340590375768</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.282210086021819</v>
+        <v>-7.232924007796449</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>4.79441032334323</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.8203197072655</v>
+        <v>-22.80699716355316</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.940273491376486</v>
+        <v>-0.9148457666616613</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.358302588898483</v>
+        <v>-7.303980833600192</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>5.400916057521475</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.8895161750186</v>
+        <v>-23.88190399132681</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.191680891493853</v>
+        <v>-1.169939477956683</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.722538489490514</v>
+        <v>-7.671443478724385</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>5.959849393667658</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.10487439206499</v>
+        <v>-25.10372547545126</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.121929430523578</v>
+        <v>-1.105717483752888</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.092890537673055</v>
+        <v>-8.038994125972184</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>6.457893230057654</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.37584506222253</v>
+        <v>-26.37672019445171</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.337035954654102</v>
+        <v>-1.325072554850761</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.383258433512868</v>
+        <v>-8.327083744612015</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>6.880277940465368</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.6420685067123</v>
+        <v>-27.64759797347878</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.618676973236471</v>
+        <v>-1.599981410977388</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.694551278743075</v>
+        <v>-8.639046383782992</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>7.204141503841237</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.14746216713155</v>
+        <v>-29.15649216281474</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.862731307025998</v>
+        <v>-1.850963467497334</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.030372271424596</v>
+        <v>-8.974143803448209</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>7.419916975482066</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.77927576711549</v>
+        <v>-30.78774352700898</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.123623380465181</v>
+        <v>-2.1167787708515</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.308390535918583</v>
+        <v>-9.257280858131853</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>7.506946796032858</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.62255602561753</v>
+        <v>-32.63031976852218</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.141292251282211</v>
+        <v>-2.138192620928587</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.663014649010258</v>
+        <v>-9.614745484213207</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>7.46130435672216</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.34256242047374</v>
+        <v>-34.35327179001572</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.494630555567888</v>
+        <v>-2.493413192858027</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.02747544391817</v>
+        <v>-9.982731253072162</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>7.260954264480491</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.33226354563302</v>
+        <v>-36.34662011429771</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.890141433087574</v>
+        <v>-2.888097828217203</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.4659949148461</v>
+        <v>-10.42862823536227</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>6.938746625668406</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.36450880854819</v>
+        <v>-38.38798337501968</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.164263159108628</v>
+        <v>-3.16101196954213</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.80442174818769</v>
+        <v>-10.77047248450383</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>6.440495648609249</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.56939468194786</v>
+        <v>-40.59076208645971</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.525037642838883</v>
+        <v>-3.521458889812301</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.98636124973306</v>
+        <v>-10.95200619847925</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>5.870494902245097</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.48229195373134</v>
+        <v>-42.50173553404106</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.957294295970301</v>
+        <v>-3.957563191347981</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.24162118726156</v>
+        <v>-11.21315250027551</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>5.092756493681985</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.74769395412969</v>
+        <v>-44.76495459287333</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.194684913400224</v>
+        <v>-4.191746620273207</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.38204324249309</v>
+        <v>-11.35305143177228</v>
       </c>
     </row>
   </sheetData>
